--- a/src/main/java/com/crm/qa/testdata/FreeCrmTestData.xlsx
+++ b/src/main/java/com/crm/qa/testdata/FreeCrmTestData.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NaveenKhunteta/Documents/MyPOMFramework/PageObjectModel/src/main/java/com/crm/qa/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu-b\git\PageObjectModel\src\main\java\com\crm\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6A3F00-D5F4-4526-8734-3C04EA4CB946}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" tabRatio="500"/>
+    <workbookView xWindow="6696" yWindow="4236" windowWidth="17280" windowHeight="8964" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contacts" sheetId="1" r:id="rId1"/>
     <sheet name="deals" sheetId="2" r:id="rId2"/>
     <sheet name="tasks" sheetId="3" r:id="rId3"/>
+    <sheet name="TestData" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>title</t>
   </si>
@@ -77,17 +79,65 @@
   </si>
   <si>
     <t>Ebay</t>
+  </si>
+  <si>
+    <t>fbbs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ywgs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qdlx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xstd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ywy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ywly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cxywbs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-原保险保单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T6209880101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S000000029</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01010101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HXXT-核心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -95,8 +145,15 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -126,18 +183,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -405,16 +466,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,7 +489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -442,7 +503,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -456,7 +517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -471,30 +532,102 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FB4AF2-2C99-459C-9147-AD7590C3225D}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="18.26953125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="8.7265625" style="2"/>
+    <col min="4" max="4" width="20.453125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="19.54296875" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1620189</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/java/com/crm/qa/testdata/FreeCrmTestData.xlsx
+++ b/src/main/java/com/crm/qa/testdata/FreeCrmTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu-b\git\PageObjectModel\src\main\java\com\crm\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6A3F00-D5F4-4526-8734-3C04EA4CB946}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D73EBE-EFEB-4F33-BFC0-5D527C3AA216}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6696" yWindow="4236" windowWidth="17280" windowHeight="8964" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contacts" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>title</t>
   </si>
@@ -126,6 +126,14 @@
   </si>
   <si>
     <t>HXXT-核心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01620189</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>04</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -473,7 +481,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -543,7 +551,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -556,7 +564,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -568,16 +576,16 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="18.26953125" style="2" customWidth="1"/>
-    <col min="2" max="3" width="8.7265625" style="2"/>
-    <col min="4" max="4" width="20.453125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="19.54296875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="18.25" style="2" customWidth="1"/>
+    <col min="2" max="3" width="8.75" style="2"/>
+    <col min="4" max="4" width="20.5" style="2" customWidth="1"/>
+    <col min="5" max="6" width="19.5" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -607,11 +615,11 @@
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2">
-        <v>1620189</v>
-      </c>
-      <c r="C2" s="2">
-        <v>4</v>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>24</v>
@@ -629,5 +637,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/java/com/crm/qa/testdata/FreeCrmTestData.xlsx
+++ b/src/main/java/com/crm/qa/testdata/FreeCrmTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu-b\git\PageObjectModel\src\main\java\com\crm\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D73EBE-EFEB-4F33-BFC0-5D527C3AA216}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8642DC-052B-4AF1-A7CA-EB0497057317}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,10 +109,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1-原保险保单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>T6209880101</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -125,15 +121,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>HXXT-核心</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>01620189</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HXXT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -576,7 +576,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -613,25 +613,25 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
